--- a/RPL_V2/xlsx/club_ks.xlsx
+++ b/RPL_V2/xlsx/club_ks.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -171,6 +166,15 @@
     <t>std_samara</t>
   </si>
   <si>
+    <t>ks_oveinikov</t>
+  </si>
+  <si>
+    <t>ks_oros</t>
+  </si>
+  <si>
+    <t>ks_galdames</t>
+  </si>
+  <si>
     <t>Бронзовый призёр в 2004 году</t>
   </si>
   <si>
@@ -312,6 +316,15 @@
     <t>Крыс</t>
   </si>
   <si>
+    <t>Иван Олейников</t>
+  </si>
+  <si>
+    <t>Доминик Орос</t>
+  </si>
+  <si>
+    <t>Томас Гальдамес</t>
+  </si>
+  <si>
     <t>logo_khimki</t>
   </si>
   <si>
@@ -339,7 +352,7 @@
     <t>Андрей Талалаев</t>
   </si>
   <si>
-    <t>Игорь Семшов </t>
+    <t xml:space="preserve">Игорь Семшов </t>
   </si>
   <si>
     <t>Фернандо</t>
@@ -541,31 +554,13 @@
   </si>
   <si>
     <t>Рысь</t>
-  </si>
-  <si>
-    <t>Иван Олейников</t>
-  </si>
-  <si>
-    <t>Доминик Орос</t>
-  </si>
-  <si>
-    <t>Томас Гальдамес</t>
-  </si>
-  <si>
-    <t>ks_oveinikov</t>
-  </si>
-  <si>
-    <t>ks_oros</t>
-  </si>
-  <si>
-    <t>ks_galdames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,25 +619,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +667,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,10 +701,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,10 +735,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,19 +910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1001,49 +981,49 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1057,43 +1037,43 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1104,46 +1084,46 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1157,43 +1137,43 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1204,49 +1184,49 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>1942</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>1956</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K6">
         <v>1925</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6">
         <v>1997</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O6">
         <v>1934</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>1986</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1257,49 +1237,49 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1313,43 +1293,43 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1360,49 +1340,49 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1416,43 +1396,43 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1463,49 +1443,49 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1516,49 +1496,49 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1569,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1578,40 +1558,40 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
         <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
         <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1622,49 +1602,49 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1675,49 +1655,49 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1728,49 +1708,49 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1781,49 +1761,49 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
         <v>91</v>
       </c>
-      <c r="N17" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1834,49 +1814,49 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
-      </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1887,49 +1867,49 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
         <v>86</v>
       </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1940,49 +1920,49 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1993,49 +1973,49 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2046,49 +2026,49 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O22" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2099,49 +2079,49 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2152,49 +2132,49 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" t="s">
         <v>91</v>
       </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" t="s">
-        <v>88</v>
-      </c>
       <c r="P24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2205,49 +2185,49 @@
         <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="s">
         <v>92</v>
       </c>
-      <c r="H25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" t="s">
-        <v>89</v>
-      </c>
       <c r="N25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2258,49 +2238,49 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" t="s">
         <v>92</v>
       </c>
-      <c r="L26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" t="s">
-        <v>89</v>
-      </c>
       <c r="N26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2311,49 +2291,49 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2364,49 +2344,49 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" t="s">
         <v>79</v>
       </c>
-      <c r="H28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" t="s">
-        <v>142</v>
-      </c>
-      <c r="N28" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" t="s">
-        <v>159</v>
-      </c>
-      <c r="P28" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2417,49 +2397,49 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2470,49 +2450,49 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2520,49 +2500,49 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" t="s">
         <v>91</v>
       </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2570,49 +2550,49 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" t="s">
         <v>86</v>
       </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" t="s">
-        <v>83</v>
-      </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2620,46 +2600,46 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" t="s">
         <v>86</v>
       </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" t="s">
-        <v>83</v>
-      </c>
       <c r="N33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q33" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
